--- a/30SecHero/Designer/真英雄30秒.xlsx
+++ b/30SecHero/Designer/真英雄30秒.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTG_PROJECT\30SecHero\30SecHero\Designer\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3053C39-80E4-49E3-92B6-0EECD43F101F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="28800" windowHeight="12135" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="28800" windowHeight="12135" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="玩法特色" sheetId="2" r:id="rId1"/>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="230">
   <si>
     <t>冰</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -333,10 +339,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>廢物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>掉落強化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -545,22 +547,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>瓦斯怪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆闢惡魔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>針頭魔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>介面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -569,18 +555,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小怪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大怪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>裝備種類</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -812,18 +786,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>等級</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品質</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>獲得順序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>怪物魂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -893,13 +855,93 @@
   </si>
   <si>
     <t>char_e06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪待機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大怪待機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大怪攻擊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪攻擊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投射物特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飾品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投射物擊中特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物自爆特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家死亡特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物死亡特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家出生特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近戰擊中特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具效果特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>負面效果特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戰鬥介面加上速度、樓層、距離</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附魔icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家受擊紅框特效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1012,7 +1054,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1038,9 +1080,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -1104,7 +1143,7 @@
         <xdr:cNvPr id="2" name="圖片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{354684AF-11E1-48AB-8386-C0DD0F34485B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{354684AF-11E1-48AB-8386-C0DD0F34485B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1148,7 +1187,7 @@
         <xdr:cNvPr id="3" name="圖片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4E78D240-9402-441E-8D8B-7F6C3515CF3B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E78D240-9402-441E-8D8B-7F6C3515CF3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1192,7 +1231,7 @@
         <xdr:cNvPr id="4" name="圖片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A66EDA4-1288-4500-A443-AEC72B465A7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A66EDA4-1288-4500-A443-AEC72B465A7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1264,7 +1303,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1316,7 +1355,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1510,14 +1549,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1531,47 +1570,47 @@
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1582,11 +1621,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1595,10 +1634,10 @@
     <col min="2" max="2" width="37.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="49.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1612,12 +1651,12 @@
         <v>5</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
@@ -1625,86 +1664,78 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="H2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="G2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="D3" s="3">
         <v>0.5</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="H3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="G3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" s="3">
         <v>0.5</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="33" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="33" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="3">
         <v>1.5</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>6</v>
@@ -1713,16 +1744,16 @@
         <v>2</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>39</v>
       </c>
@@ -1734,42 +1765,41 @@
         <v>1</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8" t="s">
-        <v>220</v>
+        <v>80</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="I7" t="s">
+        <v>108</v>
       </c>
       <c r="J7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="33" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="33" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>213</v>
+        <v>80</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="I8" t="s">
+        <v>109</v>
       </c>
       <c r="J8" t="s">
-        <v>110</v>
-      </c>
-      <c r="K8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>42</v>
       </c>
@@ -1779,22 +1809,19 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>214</v>
+        <v>203</v>
+      </c>
+      <c r="I9" t="s">
+        <v>110</v>
       </c>
       <c r="J9" t="s">
-        <v>111</v>
-      </c>
-      <c r="K9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>43</v>
       </c>
@@ -1804,22 +1831,19 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>215</v>
+        <v>80</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I10" t="s">
+        <v>119</v>
       </c>
       <c r="J10" t="s">
-        <v>120</v>
-      </c>
-      <c r="K10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="33" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="33" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>45</v>
       </c>
@@ -1829,19 +1853,16 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="J11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="33" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="I11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="33" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>47</v>
       </c>
@@ -1853,16 +1874,16 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="33" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="33" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>75</v>
       </c>
@@ -1872,86 +1893,83 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>218</v>
+        <v>80</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="I13" t="s">
+        <v>125</v>
       </c>
       <c r="J13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>114</v>
+      </c>
+      <c r="J14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>123</v>
+      </c>
+      <c r="J15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>112</v>
+      </c>
+      <c r="J16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>124</v>
+      </c>
+      <c r="J17" t="s">
         <v>126</v>
       </c>
-      <c r="K13" t="s">
+    </row>
+    <row r="18" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I20" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J14" t="s">
-        <v>115</v>
-      </c>
-      <c r="K14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J15" t="s">
+    <row r="21" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
         <v>124</v>
       </c>
-      <c r="K15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J16" t="s">
+    </row>
+    <row r="25" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
         <v>113</v>
-      </c>
-      <c r="K16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J17" t="s">
-        <v>125</v>
-      </c>
-      <c r="K17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J20" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J24" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J25" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1962,11 +1980,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2022,16 +2040,16 @@
         <v>19</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="U8" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
@@ -2045,16 +2063,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="O9" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="P9" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="T9" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
@@ -2071,69 +2089,69 @@
         <v>33</v>
       </c>
       <c r="O10" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="P10" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D11" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="I11" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="J11" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="O11" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="P11" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C12" s="11" t="s">
-        <v>160</v>
+      <c r="C12" s="10" t="s">
+        <v>152</v>
       </c>
       <c r="D12" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="O12" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="P12" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="S12" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="I13" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="O13" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="P13" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="S13" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="U13" t="s">
-        <v>187</v>
-      </c>
-      <c r="V13" s="14">
+        <v>179</v>
+      </c>
+      <c r="V13" s="13">
         <v>0.8</v>
       </c>
     </row>
@@ -2145,25 +2163,25 @@
         <v>50</v>
       </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="J14" t="s">
         <v>20</v>
       </c>
       <c r="O14" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="S14" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="U14" t="s">
-        <v>148</v>
-      </c>
-      <c r="V14" s="14">
+        <v>140</v>
+      </c>
+      <c r="V14" s="13">
         <f>(1-$V$13)*W14</f>
         <v>7.9999999999999988E-2</v>
       </c>
-      <c r="W14" s="14">
+      <c r="W14" s="13">
         <v>0.4</v>
       </c>
     </row>
@@ -2178,22 +2196,22 @@
         <v>51</v>
       </c>
       <c r="I15" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="J15" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="O15" t="s">
         <v>9</v>
       </c>
       <c r="U15" t="s">
-        <v>149</v>
-      </c>
-      <c r="V15" s="14">
+        <v>141</v>
+      </c>
+      <c r="V15" s="13">
         <f t="shared" ref="V15:V18" si="0">(1-$V$13)*W15</f>
         <v>5.9999999999999984E-2</v>
       </c>
-      <c r="W15" s="14">
+      <c r="W15" s="13">
         <v>0.3</v>
       </c>
     </row>
@@ -2208,22 +2226,22 @@
         <v>54</v>
       </c>
       <c r="I16" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" t="s">
         <v>155</v>
       </c>
-      <c r="J16" t="s">
-        <v>163</v>
-      </c>
       <c r="O16" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="U16" t="s">
-        <v>150</v>
-      </c>
-      <c r="V16" s="14">
+        <v>142</v>
+      </c>
+      <c r="V16" s="13">
         <f t="shared" si="0"/>
         <v>3.3999999999999996E-2</v>
       </c>
-      <c r="W16" s="14">
+      <c r="W16" s="13">
         <v>0.17</v>
       </c>
     </row>
@@ -2238,54 +2256,54 @@
         <v>61</v>
       </c>
       <c r="I17" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J17" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="U17" t="s">
-        <v>151</v>
-      </c>
-      <c r="V17" s="14">
+        <v>143</v>
+      </c>
+      <c r="V17" s="13">
         <f t="shared" si="0"/>
         <v>1.5999999999999997E-2</v>
       </c>
-      <c r="W17" s="14">
+      <c r="W17" s="13">
         <v>0.08</v>
       </c>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D18" t="s">
         <v>31</v>
       </c>
       <c r="U18" t="s">
-        <v>164</v>
-      </c>
-      <c r="V18" s="14">
+        <v>156</v>
+      </c>
+      <c r="V18" s="13">
         <f t="shared" si="0"/>
         <v>9.9999999999999985E-3</v>
       </c>
-      <c r="W18" s="14">
+      <c r="W18" s="13">
         <v>0.05</v>
       </c>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
       </c>
       <c r="I19" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="W19" s="14">
+      <c r="W19" s="13">
         <f>SUM(W14:W18)</f>
         <v>1</v>
       </c>
@@ -2295,34 +2313,34 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="14" t="s">
         <v>52</v>
       </c>
       <c r="K20" t="s">
         <v>20</v>
       </c>
       <c r="M20" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="O20" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="P20" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="Q20" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="R20" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="S20" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
@@ -2330,57 +2348,57 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="I21" s="14" t="s">
         <v>53</v>
       </c>
       <c r="K21" t="s">
         <v>23</v>
       </c>
       <c r="M21" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="P21" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="Q21" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="R21" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="S21" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>100</v>
+      <c r="C22" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="K22" t="s">
+        <v>151</v>
+      </c>
+      <c r="M22" t="s">
         <v>158</v>
       </c>
-      <c r="I22" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="K22" t="s">
-        <v>159</v>
-      </c>
-      <c r="M22" t="s">
-        <v>166</v>
-      </c>
       <c r="R22" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
@@ -2390,14 +2408,14 @@
       <c r="D23" t="s">
         <v>63</v>
       </c>
-      <c r="I23" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="K23" s="11" t="s">
-        <v>160</v>
+      <c r="I23" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>152</v>
       </c>
       <c r="M23" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
@@ -2407,8 +2425,8 @@
       <c r="D24" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="17" t="s">
-        <v>98</v>
+      <c r="I24" s="16" t="s">
+        <v>97</v>
       </c>
       <c r="K24" t="s">
         <v>21</v>
@@ -2421,8 +2439,8 @@
       <c r="D25" t="s">
         <v>57</v>
       </c>
-      <c r="I25" s="16" t="s">
-        <v>97</v>
+      <c r="I25" s="15" t="s">
+        <v>96</v>
       </c>
       <c r="K25" t="s">
         <v>52</v>
@@ -2435,17 +2453,17 @@
       <c r="D26" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="16" t="s">
-        <v>99</v>
+      <c r="I26" s="15" t="s">
+        <v>98</v>
       </c>
       <c r="K26" t="s">
         <v>53</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="P26" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.25">
@@ -2453,16 +2471,16 @@
         <v>30</v>
       </c>
       <c r="J27" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="K27" t="s">
         <v>60</v>
       </c>
       <c r="O27" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P27" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.25">
@@ -2470,55 +2488,55 @@
         <v>62</v>
       </c>
       <c r="J28" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="K28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O28" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P28" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="I29" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="J29" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="K29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O29" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P29" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="K30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O30" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="P30" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.25">
       <c r="K31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="P31" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.25">
@@ -2526,10 +2544,10 @@
         <v>62</v>
       </c>
       <c r="O32" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P32" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="11:11" x14ac:dyDescent="0.25">
@@ -2555,7 +2573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
@@ -2571,7 +2589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2632,99 +2650,234 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>136</v>
+      <c r="A1" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" t="s">
-        <v>137</v>
+        <v>100</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>210</v>
       </c>
       <c r="D2">
         <v>11</v>
       </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>138</v>
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4">
         <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>101</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>198</v>
+      <c r="A9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
-        <v>199</v>
+      <c r="C10" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
-        <v>200</v>
+      <c r="C11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>103</v>
+      <c r="C12" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>102</v>
+      <c r="C13" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>106</v>
+      <c r="C14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/30SecHero/Designer/真英雄30秒.xlsx
+++ b/30SecHero/Designer/真英雄30秒.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTG_PROJECT\30SecHero\30SecHero\Designer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3053C39-80E4-49E3-92B6-0EECD43F101F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC93D36F-F1F5-444E-BEAD-54F41DF4EFE7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="28800" windowHeight="12135" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="28800" windowHeight="12135" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="玩法特色" sheetId="2" r:id="rId1"/>
     <sheet name="怪物" sheetId="4" r:id="rId2"/>
-    <sheet name="數值" sheetId="3" r:id="rId3"/>
-    <sheet name="工作表1" sheetId="7" r:id="rId4"/>
-    <sheet name="陷阱" sheetId="5" r:id="rId5"/>
-    <sheet name="帶作項目" sheetId="6" r:id="rId6"/>
+    <sheet name="工作表2" sheetId="8" r:id="rId3"/>
+    <sheet name="數值" sheetId="3" r:id="rId4"/>
+    <sheet name="工作表1" sheetId="7" r:id="rId5"/>
+    <sheet name="陷阱" sheetId="5" r:id="rId6"/>
+    <sheet name="帶作項目" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="235">
   <si>
     <t>冰</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -935,6 +936,26 @@
   </si>
   <si>
     <t>玩家受擊紅框特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>knock intensity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stun time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地板裝飾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>門檔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物魂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1625,7 +1646,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1922,6 +1943,12 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C16" s="2">
+        <v>20000</v>
+      </c>
       <c r="I16" t="s">
         <v>112</v>
       </c>
@@ -1929,7 +1956,13 @@
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>231</v>
+      </c>
+      <c r="C17">
+        <v>0.3</v>
+      </c>
       <c r="I17" t="s">
         <v>124</v>
       </c>
@@ -1937,37 +1970,37 @@
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I18" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I20" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I21" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I22" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I23" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I24" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I25" t="s">
         <v>113</v>
       </c>
@@ -1980,10 +2013,45 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FB15CE4-6ACD-40B9-8335-D680DB7C24C5}">
+  <dimension ref="B3:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" s="2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4">
+        <v>0.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:W35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
@@ -2572,7 +2640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2588,7 +2656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -2649,12 +2717,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2766,6 +2834,9 @@
       <c r="D9">
         <v>1</v>
       </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
@@ -2801,6 +2872,9 @@
       <c r="D13">
         <v>1</v>
       </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" s="7" t="s">
@@ -2868,6 +2942,30 @@
       </c>
       <c r="E20">
         <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D23">
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">

--- a/30SecHero/Designer/真英雄30秒.xlsx
+++ b/30SecHero/Designer/真英雄30秒.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTG_PROJECT\30SecHero\30SecHero\Designer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC93D36F-F1F5-444E-BEAD-54F41DF4EFE7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9E3EC2-C2C9-40E2-9938-996E817EF801}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="28800" windowHeight="12135" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="28800" windowHeight="12135" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="玩法特色" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="253">
   <si>
     <t>冰</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,10 +172,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小惡魔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>骷髏頭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -848,114 +844,185 @@
     <t>char_e11</t>
   </si>
   <si>
+    <t>char_e02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_e06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪待機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大怪待機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大怪攻擊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪攻擊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投射物特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飾品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投射物擊中特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物自爆特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家死亡特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物死亡特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近戰擊中特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具效果特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>負面效果特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戰鬥介面加上速度、樓層、距離</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附魔icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家受擊紅框特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>knock intensity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stun time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地板裝飾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>門檔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家受擊護盾特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家變身特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頭吸走道具</t>
+  </si>
+  <si>
+    <t>衝刺加入閃避投射物、衝刺修正不能調整BUG</t>
+  </si>
+  <si>
+    <t>中毒後很快消失，且不會再中毒</t>
+  </si>
+  <si>
+    <t>小怪要先產好一部份</t>
+  </si>
+  <si>
+    <t>變成史萊姆要有1秒無敵特效</t>
+  </si>
+  <si>
+    <t>擊殺獲得速度增加顯示</t>
+  </si>
+  <si>
+    <t>跑到牌還點還是距離過長</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火哥不靈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰哥不靈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒哥不靈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火小惡魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰小惡魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒小惡魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>char_e12</t>
-  </si>
-  <si>
-    <t>char_e02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_e06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小怪待機</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大怪待機</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大怪攻擊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小怪攻擊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投射物特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飾品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投射物擊中特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物自爆特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家死亡特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物死亡特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家出生特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>近戰擊中特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具效果特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>負面效果特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戰鬥介面加上速度、樓層、距離</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附魔icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家受擊紅框特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>knock intensity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stun time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地板裝飾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>門檔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_e13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_e14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_e15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_e16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_e17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1591,47 +1658,47 @@
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1643,10 +1710,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1672,23 +1739,23 @@
         <v>5</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
@@ -1696,20 +1763,20 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D3" s="3">
         <v>0.5</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
@@ -1717,38 +1784,38 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>36</v>
+        <v>244</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="3">
         <v>0.5</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="33" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="3">
         <v>1.5</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1756,7 +1823,7 @@
         <v>35</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>6</v>
@@ -1765,244 +1832,308 @@
         <v>2</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="33" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="33" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="33" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="33" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="I13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="I14" t="s">
+        <v>113</v>
+      </c>
+      <c r="J14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="I15" t="s">
+        <v>122</v>
+      </c>
+      <c r="J15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="I16" t="s">
+        <v>111</v>
+      </c>
+      <c r="J16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="I17" t="s">
+        <v>123</v>
+      </c>
+      <c r="J17" t="s">
         <v>125</v>
       </c>
-      <c r="J13" t="s">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="I18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I20" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I14" t="s">
-        <v>114</v>
-      </c>
-      <c r="J14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I15" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
         <v>123</v>
       </c>
-      <c r="J15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C16" s="2">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C27" s="2">
         <v>20000</v>
       </c>
-      <c r="I16" t="s">
-        <v>112</v>
-      </c>
-      <c r="J16" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>231</v>
-      </c>
-      <c r="C17">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>228</v>
+      </c>
+      <c r="C28">
         <v>0.3</v>
-      </c>
-      <c r="I17" t="s">
-        <v>124</v>
-      </c>
-      <c r="J17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I20" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I22" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I23" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I25" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2027,7 +2158,7 @@
   <sheetData>
     <row r="3" spans="2:3" ht="33" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C3" s="2">
         <v>20000</v>
@@ -2035,7 +2166,7 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C4">
         <v>0.3</v>
@@ -2051,8 +2182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9:O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2108,16 +2239,16 @@
         <v>19</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
@@ -2131,16 +2262,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
@@ -2157,67 +2288,67 @@
         <v>33</v>
       </c>
       <c r="O10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I11" t="s">
+        <v>134</v>
+      </c>
+      <c r="J11" t="s">
         <v>135</v>
       </c>
-      <c r="J11" t="s">
-        <v>136</v>
-      </c>
       <c r="O11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C12" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O12" t="s">
+        <v>167</v>
+      </c>
+      <c r="P12" t="s">
         <v>168</v>
       </c>
-      <c r="P12" t="s">
-        <v>169</v>
-      </c>
       <c r="S12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="I13" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O13" t="s">
+        <v>183</v>
+      </c>
+      <c r="P13" t="s">
         <v>184</v>
       </c>
-      <c r="P13" t="s">
-        <v>185</v>
-      </c>
       <c r="S13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="U13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V13" s="13">
         <v>0.8</v>
@@ -2228,22 +2359,22 @@
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J14" t="s">
         <v>20</v>
       </c>
       <c r="O14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="S14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="V14" s="13">
         <f>(1-$V$13)*W14</f>
@@ -2255,25 +2386,25 @@
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O15" t="s">
         <v>9</v>
       </c>
       <c r="U15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="V15" s="13">
         <f t="shared" ref="V15:V18" si="0">(1-$V$13)*W15</f>
@@ -2285,25 +2416,25 @@
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
         <v>53</v>
       </c>
-      <c r="D16" t="s">
-        <v>54</v>
-      </c>
       <c r="I16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="V16" s="13">
         <f t="shared" si="0"/>
@@ -2315,22 +2446,22 @@
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
         <v>60</v>
       </c>
-      <c r="D17" t="s">
-        <v>61</v>
-      </c>
       <c r="I17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="V17" s="13">
         <f t="shared" si="0"/>
@@ -2342,13 +2473,13 @@
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s">
         <v>31</v>
       </c>
       <c r="U18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="V18" s="13">
         <f t="shared" si="0"/>
@@ -2360,16 +2491,16 @@
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="W19" s="13">
         <f>SUM(W14:W18)</f>
@@ -2381,34 +2512,34 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K20" t="s">
         <v>20</v>
       </c>
       <c r="M20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O20" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" t="s">
         <v>140</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>141</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>142</v>
       </c>
-      <c r="R20" t="s">
-        <v>143</v>
-      </c>
       <c r="S20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
@@ -2416,31 +2547,31 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K21" t="s">
         <v>23</v>
       </c>
       <c r="M21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P21" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q21" t="s">
         <v>144</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>145</v>
       </c>
-      <c r="R21" t="s">
-        <v>146</v>
-      </c>
       <c r="S21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
@@ -2448,42 +2579,42 @@
         <v>22</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
       </c>
       <c r="G22" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K22" t="s">
         <v>150</v>
       </c>
-      <c r="I22" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="K22" t="s">
-        <v>151</v>
-      </c>
       <c r="M22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" t="s">
         <v>62</v>
       </c>
-      <c r="D23" t="s">
-        <v>63</v>
-      </c>
       <c r="I23" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
@@ -2494,7 +2625,7 @@
         <v>32</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K24" t="s">
         <v>21</v>
@@ -2502,36 +2633,36 @@
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" t="s">
         <v>56</v>
       </c>
-      <c r="D25" t="s">
-        <v>57</v>
-      </c>
       <c r="I25" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.25">
@@ -2539,83 +2670,83 @@
         <v>30</v>
       </c>
       <c r="J27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="I28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="I29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="K30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.25">
       <c r="K31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.25">
       <c r="K32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P32" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="11:11" x14ac:dyDescent="0.25">
@@ -2625,12 +2756,12 @@
     </row>
     <row r="34" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2668,47 +2799,47 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
         <v>65</v>
-      </c>
-      <c r="B2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
         <v>67</v>
-      </c>
-      <c r="B3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
         <v>69</v>
-      </c>
-      <c r="B4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
         <v>71</v>
-      </c>
-      <c r="B5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" t="s">
         <v>73</v>
-      </c>
-      <c r="B6" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2719,10 +2850,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2730,20 +2861,20 @@
     <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D2">
         <v>11</v>
@@ -2752,12 +2883,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D3">
         <v>11</v>
@@ -2765,35 +2896,44 @@
       <c r="E3">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -2801,176 +2941,214 @@
       <c r="E6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="15">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="7" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C13" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D15">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="D15">
+      <c r="E15" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D16">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
+      <c r="E16" s="15">
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="7" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="D17">
         <v>5</v>
       </c>
-      <c r="E17">
-        <v>5</v>
-      </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D18">
         <v>5</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D20">
         <v>5</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="7" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E21" s="15">
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D24">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>227</v>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/30SecHero/Designer/真英雄30秒.xlsx
+++ b/30SecHero/Designer/真英雄30秒.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTG_PROJECT\30SecHero\30SecHero\Designer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9E3EC2-C2C9-40E2-9938-996E817EF801}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99C687B-EC37-4B54-AEBD-D5000EF7190B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="28800" windowHeight="12135" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="28800" windowHeight="12135" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="玩法特色" sheetId="2" r:id="rId1"/>
@@ -1712,8 +1712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2182,8 +2182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:W35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9:O13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2853,7 +2853,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2938,8 +2938,8 @@
       <c r="D6">
         <v>5</v>
       </c>
-      <c r="E6">
-        <v>3</v>
+      <c r="E6" s="15">
+        <v>5</v>
       </c>
       <c r="H6" t="s">
         <v>237</v>
@@ -2955,8 +2955,8 @@
       <c r="D7">
         <v>5</v>
       </c>
-      <c r="E7">
-        <v>3</v>
+      <c r="E7" s="15">
+        <v>5</v>
       </c>
       <c r="H7" t="s">
         <v>238</v>

--- a/30SecHero/Designer/真英雄30秒.xlsx
+++ b/30SecHero/Designer/真英雄30秒.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTG_PROJECT\30SecHero\30SecHero\Designer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99C687B-EC37-4B54-AEBD-D5000EF7190B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0E3402-0BF0-48A8-8758-5A40F2FDBEA7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="28800" windowHeight="12135" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="28800" windowHeight="12135" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="玩法特色" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="254">
   <si>
     <t>冰</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -916,10 +916,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>戰鬥介面加上速度、樓層、距離</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>附魔icon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1023,6 +1019,14 @@
   </si>
   <si>
     <t>char_e17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地板配色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戰鬥介面加速度、樓層、距離</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1784,7 +1788,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
@@ -1984,7 +1988,7 @@
         <v>79</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I13" t="s">
         <v>124</v>
@@ -1995,7 +1999,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2004,7 +2008,7 @@
         <v>79</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I14" t="s">
         <v>113</v>
@@ -2015,7 +2019,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2024,7 +2028,7 @@
         <v>79</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I15" t="s">
         <v>122</v>
@@ -2035,7 +2039,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2044,7 +2048,7 @@
         <v>79</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I16" t="s">
         <v>111</v>
@@ -2055,7 +2059,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2064,7 +2068,7 @@
         <v>79</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I17" t="s">
         <v>123</v>
@@ -2075,7 +2079,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2084,7 +2088,7 @@
         <v>79</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I18" t="s">
         <v>112</v>
@@ -2122,7 +2126,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C27" s="2">
         <v>20000</v>
@@ -2130,7 +2134,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C28">
         <v>0.3</v>
@@ -2158,7 +2162,7 @@
   <sheetData>
     <row r="3" spans="2:3" ht="33" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C3" s="2">
         <v>20000</v>
@@ -2166,7 +2170,7 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C4">
         <v>0.3</v>
@@ -2182,8 +2186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView topLeftCell="D18" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27:P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2850,10 +2854,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2874,30 +2878,30 @@
         <v>99</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D2">
-        <v>11</v>
-      </c>
-      <c r="E2">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="E2" s="15">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>211</v>
+      <c r="C3" t="s">
+        <v>217</v>
       </c>
       <c r="D3">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="E3" s="15">
+        <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2905,13 +2909,16 @@
         <v>103</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="E4" s="15">
+        <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2919,13 +2926,16 @@
         <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="E5" s="15">
+        <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2933,33 +2943,33 @@
         <v>105</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E6" s="15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>101</v>
       </c>
-      <c r="C7" t="s">
-        <v>217</v>
+      <c r="C7" s="7" t="s">
+        <v>232</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E7" s="15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2967,7 +2977,7 @@
         <v>100</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2976,7 +2986,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2984,7 +2994,7 @@
         <v>104</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2993,64 +3003,67 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E10" s="15">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>219</v>
+      <c r="C11" s="7" t="s">
+        <v>223</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E11" s="15">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="7" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E12" s="15">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C13" s="7" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E13" s="15">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="7" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E14" s="15">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -3061,94 +3074,108 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E16" s="15">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="7" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="E17" s="15">
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="7" t="s">
-        <v>213</v>
+      <c r="C18" t="s">
+        <v>219</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E18" s="15">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="7" t="s">
-        <v>214</v>
+      <c r="C19" t="s">
+        <v>253</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E19" s="15">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="7" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="D20">
-        <v>5</v>
-      </c>
-      <c r="E20" s="15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="7" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="D21">
-        <v>5</v>
-      </c>
-      <c r="E21" s="15">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="7" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="E23">
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" s="7" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="D24">
         <v>11</v>
       </c>
+      <c r="E24">
+        <v>9</v>
+      </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>224</v>
+      <c r="C25" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/30SecHero/Designer/真英雄30秒.xlsx
+++ b/30SecHero/Designer/真英雄30秒.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTG_PROJECT\30SecHero\30SecHero\Designer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0E3402-0BF0-48A8-8758-5A40F2FDBEA7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BC59CA-6545-4F86-A4EA-69203267F1CA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="28800" windowHeight="12135" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2857,7 +2857,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F20" sqref="F20:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3083,7 +3083,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="7" t="s">
         <v>252</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>219</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>253</v>
       </c>
@@ -3116,31 +3116,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" s="7" t="s">
         <v>228</v>
       </c>
       <c r="D20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21" s="7" t="s">
         <v>229</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22" s="7" t="s">
         <v>224</v>
       </c>
       <c r="D22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C23" s="7" t="s">
         <v>208</v>
       </c>
@@ -3150,8 +3159,11 @@
       <c r="E23">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C24" s="7" t="s">
         <v>211</v>
       </c>
@@ -3161,21 +3173,30 @@
       <c r="E24">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C25" s="7" t="s">
         <v>209</v>
       </c>
       <c r="D25">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C26" s="7" t="s">
         <v>210</v>
       </c>
       <c r="D26">
         <v>10</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/30SecHero/Designer/真英雄30秒.xlsx
+++ b/30SecHero/Designer/真英雄30秒.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTG_PROJECT\30SecHero\30SecHero\Designer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BC59CA-6545-4F86-A4EA-69203267F1CA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63326C3-7836-412D-8B59-96854F014F34}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="28800" windowHeight="12135" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2857,7 +2857,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20:F26"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3123,6 +3123,7 @@
       <c r="D20">
         <v>4</v>
       </c>
+      <c r="E20" s="15"/>
       <c r="F20">
         <v>1</v>
       </c>
@@ -3134,6 +3135,7 @@
       <c r="D21">
         <v>1</v>
       </c>
+      <c r="E21" s="15"/>
       <c r="F21">
         <v>0.5</v>
       </c>

--- a/30SecHero/Designer/真英雄30秒.xlsx
+++ b/30SecHero/Designer/真英雄30秒.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTG_PROJECT\30SecHero\30SecHero\Designer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63326C3-7836-412D-8B59-96854F014F34}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC03672-8901-4193-B98B-CB1BD0C5E8E3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="28800" windowHeight="12135" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="玩法特色" sheetId="2" r:id="rId1"/>
-    <sheet name="怪物" sheetId="4" r:id="rId2"/>
-    <sheet name="工作表2" sheetId="8" r:id="rId3"/>
-    <sheet name="數值" sheetId="3" r:id="rId4"/>
-    <sheet name="工作表1" sheetId="7" r:id="rId5"/>
-    <sheet name="陷阱" sheetId="5" r:id="rId6"/>
-    <sheet name="帶作項目" sheetId="6" r:id="rId7"/>
+    <sheet name="王" sheetId="9" r:id="rId1"/>
+    <sheet name="玩法特色" sheetId="2" r:id="rId2"/>
+    <sheet name="怪物" sheetId="4" r:id="rId3"/>
+    <sheet name="工作表2" sheetId="8" r:id="rId4"/>
+    <sheet name="數值" sheetId="3" r:id="rId5"/>
+    <sheet name="工作表1" sheetId="7" r:id="rId6"/>
+    <sheet name="陷阱" sheetId="5" r:id="rId7"/>
+    <sheet name="帶作項目" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="272">
   <si>
     <t>冰</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1028,6 +1029,69 @@
   <si>
     <t>戰鬥介面加速度、樓層、距離</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_b01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_b02</t>
+  </si>
+  <si>
+    <t>char_b03</t>
+  </si>
+  <si>
+    <t>char_b04</t>
+  </si>
+  <si>
+    <t>char_b05</t>
+  </si>
+  <si>
+    <t>char_b06</t>
+  </si>
+  <si>
+    <t>char_b07</t>
+  </si>
+  <si>
+    <t>char_b08</t>
+  </si>
+  <si>
+    <t>char_b09</t>
+  </si>
+  <si>
+    <t>char_b10</t>
   </si>
 </sst>
 </file>
@@ -1648,6 +1712,167 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB27739-7B14-4802-A0FD-49C5AC5C7F03}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="37.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="49.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:A11"/>
   <sheetViews>
@@ -1712,11 +1937,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -2147,7 +2372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FB15CE4-6ACD-40B9-8335-D680DB7C24C5}">
   <dimension ref="B3:C4"/>
   <sheetViews>
@@ -2182,7 +2407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:W35"/>
   <sheetViews>
@@ -2775,7 +3000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2791,7 +3016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -2852,11 +3077,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>

--- a/30SecHero/Designer/真英雄30秒.xlsx
+++ b/30SecHero/Designer/真英雄30秒.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTG_PROJECT\30SecHero\30SecHero\Designer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC03672-8901-4193-B98B-CB1BD0C5E8E3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD0A662-8DA6-4FE5-908C-1CB53FB483BF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="28800" windowHeight="12135" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="王" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="293">
   <si>
     <t>冰</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -712,10 +712,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使用刀子殺死怪物掉落額外金錢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>死亡時有機率50%血量復活，每次戰鬥只有一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1092,6 +1088,92 @@
   </si>
   <si>
     <t>char_b10</t>
+  </si>
+  <si>
+    <t>製作boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物魂功能調整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整腳色光源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>優化地面材質</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地板裝飾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>障礙物材質</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腳色數據調整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附魔icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受及暈炫要減少</t>
+  </si>
+  <si>
+    <t>被飛行物打到不要停止</t>
+  </si>
+  <si>
+    <t>地面顏色色票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地板邊緣材質</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上下邊緣線稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地板線稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地板顏色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上下邊緣顏色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地板光影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上限邊緣光影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用刀子殺死怪物機率掉落50%額外金錢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>減少衝刺的CD時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死掉後腳色光源要留著</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1123,7 +1205,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1157,6 +1239,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1210,7 +1304,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1260,6 +1354,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1715,8 +1815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB27739-7B14-4802-A0FD-49C5AC5C7F03}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1730,7 +1830,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>34</v>
@@ -1748,13 +1848,13 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="6"/>
       <c r="F2" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1766,7 +1866,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="6"/>
       <c r="F3" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1778,91 +1878,91 @@
       <c r="D4" s="3"/>
       <c r="E4" s="6"/>
       <c r="F4" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="6"/>
       <c r="F5" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="6"/>
       <c r="F6" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="6"/>
       <c r="F7" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
       <c r="F11" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -1877,7 +1977,7 @@
   <dimension ref="A3:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1984,7 +2084,7 @@
         <v>78</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
@@ -1992,11 +2092,11 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D3" s="3">
         <v>0.5</v>
@@ -2005,7 +2105,7 @@
         <v>78</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
@@ -2013,7 +2113,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
@@ -2026,7 +2126,7 @@
         <v>79</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="33" x14ac:dyDescent="0.25">
@@ -2044,7 +2144,7 @@
         <v>78</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2064,7 +2164,7 @@
         <v>79</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>106</v>
@@ -2085,7 +2185,7 @@
         <v>79</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I7" t="s">
         <v>107</v>
@@ -2107,7 +2207,7 @@
         <v>79</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I8" t="s">
         <v>108</v>
@@ -2129,7 +2229,7 @@
         <v>79</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I9" t="s">
         <v>109</v>
@@ -2151,7 +2251,7 @@
         <v>79</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I10" t="s">
         <v>118</v>
@@ -2173,7 +2273,7 @@
         <v>78</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -2194,7 +2294,7 @@
         <v>78</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>110</v>
@@ -2213,7 +2313,7 @@
         <v>79</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I13" t="s">
         <v>124</v>
@@ -2224,7 +2324,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2233,7 +2333,7 @@
         <v>79</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I14" t="s">
         <v>113</v>
@@ -2244,7 +2344,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2253,7 +2353,7 @@
         <v>79</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I15" t="s">
         <v>122</v>
@@ -2264,7 +2364,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2273,7 +2373,7 @@
         <v>79</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I16" t="s">
         <v>111</v>
@@ -2284,7 +2384,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2293,7 +2393,7 @@
         <v>79</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I17" t="s">
         <v>123</v>
@@ -2304,7 +2404,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2313,7 +2413,7 @@
         <v>79</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I18" t="s">
         <v>112</v>
@@ -2351,7 +2451,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C27" s="2">
         <v>20000</v>
@@ -2359,7 +2459,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C28">
         <v>0.3</v>
@@ -2387,7 +2487,7 @@
   <sheetData>
     <row r="3" spans="2:3" ht="33" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C3" s="2">
         <v>20000</v>
@@ -2395,7 +2495,7 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C4">
         <v>0.3</v>
@@ -2409,10 +2509,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:W35"/>
+  <dimension ref="B2:W37"/>
   <sheetViews>
     <sheetView topLeftCell="D18" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27:P32"/>
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2477,7 +2577,7 @@
         <v>159</v>
       </c>
       <c r="U8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
@@ -2540,7 +2640,7 @@
         <v>166</v>
       </c>
       <c r="P11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
@@ -2557,10 +2657,10 @@
         <v>168</v>
       </c>
       <c r="S12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
@@ -2568,16 +2668,16 @@
         <v>131</v>
       </c>
       <c r="O13" t="s">
+        <v>182</v>
+      </c>
+      <c r="P13" t="s">
         <v>183</v>
       </c>
-      <c r="P13" t="s">
-        <v>184</v>
-      </c>
       <c r="S13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="V13" s="13">
         <v>0.8</v>
@@ -2600,7 +2700,7 @@
         <v>162</v>
       </c>
       <c r="S14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="U14" t="s">
         <v>139</v>
@@ -2800,7 +2900,7 @@
         <v>145</v>
       </c>
       <c r="S21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
@@ -2826,7 +2926,7 @@
         <v>157</v>
       </c>
       <c r="R22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
@@ -2891,7 +2991,7 @@
         <v>170</v>
       </c>
       <c r="P26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.25">
@@ -2899,16 +2999,16 @@
         <v>30</v>
       </c>
       <c r="J27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K27" t="s">
         <v>59</v>
       </c>
       <c r="O27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.25">
@@ -2916,16 +3016,10 @@
         <v>61</v>
       </c>
       <c r="J28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K28" t="s">
         <v>94</v>
-      </c>
-      <c r="O28" t="s">
-        <v>179</v>
-      </c>
-      <c r="P28" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
@@ -2933,16 +3027,16 @@
         <v>169</v>
       </c>
       <c r="J29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K29" t="s">
         <v>95</v>
       </c>
       <c r="O29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
@@ -2950,10 +3044,10 @@
         <v>96</v>
       </c>
       <c r="O30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.25">
@@ -2961,10 +3055,10 @@
         <v>97</v>
       </c>
       <c r="O31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.25">
@@ -2972,25 +3066,41 @@
         <v>61</v>
       </c>
       <c r="O32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P32" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K34" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K35" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="O36" t="s">
+        <v>178</v>
+      </c>
+      <c r="P36" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="37" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="O37" t="s">
+        <v>291</v>
+      </c>
+      <c r="P37" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -3079,10 +3189,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3090,7 +3200,7 @@
     <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>129</v>
       </c>
@@ -3098,12 +3208,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>99</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -3112,12 +3222,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -3126,15 +3236,15 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>103</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -3143,15 +3253,15 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -3160,15 +3270,15 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>105</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -3177,15 +3287,15 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>101</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -3194,15 +3304,15 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>100</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -3211,15 +3321,15 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>104</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -3228,12 +3338,12 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -3242,9 +3352,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C11" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -3252,10 +3362,13 @@
       <c r="E11" s="15">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C12" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -3263,10 +3376,13 @@
       <c r="E12" s="15">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C13" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -3274,10 +3390,16 @@
       <c r="E13" s="15">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>292</v>
+      </c>
+      <c r="O13" s="15" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -3285,10 +3407,13 @@
       <c r="E14" s="15">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="O14" s="15" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C15" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -3296,10 +3421,13 @@
       <c r="E15" s="15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="O15" s="15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C16" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D16">
         <v>11</v>
@@ -3307,10 +3435,13 @@
       <c r="E16" s="15">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="O16" s="15" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C17" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D17">
         <v>7</v>
@@ -3318,10 +3449,13 @@
       <c r="E17" s="15">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="O17" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -3329,10 +3463,13 @@
       <c r="E18" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="O18" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -3340,10 +3477,13 @@
       <c r="E19" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="O19" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C20" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -3352,10 +3492,13 @@
       <c r="F20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="O20" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C21" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -3364,10 +3507,13 @@
       <c r="F21">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="O21" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C22" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D22">
         <v>5</v>
@@ -3375,10 +3521,13 @@
       <c r="F22">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="O22" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C23" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D23">
         <v>11</v>
@@ -3390,9 +3539,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C24" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D24">
         <v>11</v>
@@ -3404,9 +3553,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C25" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D25">
         <v>10</v>
@@ -3414,16 +3563,42 @@
       <c r="F25">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I25" s="15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C26" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D26">
         <v>10</v>
       </c>
       <c r="F26">
         <v>2</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="I27" s="18" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="I28" s="18" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="I29" s="17" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="I30" s="17" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/30SecHero/Designer/真英雄30秒.xlsx
+++ b/30SecHero/Designer/真英雄30秒.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTG_PROJECT\30SecHero\30SecHero\Designer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD0A662-8DA6-4FE5-908C-1CB53FB483BF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D974F767-9FB6-410E-BE8D-800B4FA39C8F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="28800" windowHeight="12135" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="28800" windowHeight="12135" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="王" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="290">
   <si>
     <t>冰</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -712,30 +712,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>死亡時有機率50%血量復活，每次戰鬥只有一次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一段時間沒有受到傷害可持續回血，受到傷害後取消</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>連續擊殺可增加傷害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>護盾破損時有機率放出無傷害有效果元素攻擊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刀子有機率附加元素屬性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要用額外商城幣嗎?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>無</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -748,10 +728,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>加%數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>力量x2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1173,6 +1149,18 @@
   </si>
   <si>
     <t>死掉後腳色光源要留著</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀子有機率附加隨機元素屬性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城幣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>護盾破碎時有機率放出暈眩衝擊波</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1830,7 +1818,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>34</v>
@@ -1848,13 +1836,13 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="6"/>
       <c r="F2" s="8" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1866,7 +1854,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="6"/>
       <c r="F3" s="8" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1878,91 +1866,91 @@
       <c r="D4" s="3"/>
       <c r="E4" s="6"/>
       <c r="F4" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="6"/>
       <c r="F5" s="8" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="6"/>
       <c r="F6" s="8" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="6"/>
       <c r="F7" s="8" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="8" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="8" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="8" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
       <c r="F11" s="8" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -2042,7 +2030,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2084,7 +2072,7 @@
         <v>78</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
@@ -2092,11 +2080,11 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D3" s="3">
         <v>0.5</v>
@@ -2105,7 +2093,7 @@
         <v>78</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
@@ -2113,7 +2101,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
@@ -2126,7 +2114,7 @@
         <v>79</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="33" x14ac:dyDescent="0.25">
@@ -2144,7 +2132,7 @@
         <v>78</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2164,7 +2152,7 @@
         <v>79</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>106</v>
@@ -2185,7 +2173,7 @@
         <v>79</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="I7" t="s">
         <v>107</v>
@@ -2207,7 +2195,7 @@
         <v>79</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="I8" t="s">
         <v>108</v>
@@ -2229,7 +2217,7 @@
         <v>79</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="I9" t="s">
         <v>109</v>
@@ -2251,7 +2239,7 @@
         <v>79</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="I10" t="s">
         <v>118</v>
@@ -2273,7 +2261,7 @@
         <v>78</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -2294,7 +2282,7 @@
         <v>78</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>110</v>
@@ -2313,7 +2301,7 @@
         <v>79</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="I13" t="s">
         <v>124</v>
@@ -2324,7 +2312,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2333,7 +2321,7 @@
         <v>79</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="I14" t="s">
         <v>113</v>
@@ -2344,7 +2332,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2353,7 +2341,7 @@
         <v>79</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="I15" t="s">
         <v>122</v>
@@ -2364,7 +2352,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2373,7 +2361,7 @@
         <v>79</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="I16" t="s">
         <v>111</v>
@@ -2384,7 +2372,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2393,7 +2381,7 @@
         <v>79</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="I17" t="s">
         <v>123</v>
@@ -2404,7 +2392,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2413,7 +2401,7 @@
         <v>79</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I18" t="s">
         <v>112</v>
@@ -2451,7 +2439,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C27" s="2">
         <v>20000</v>
@@ -2459,7 +2447,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C28">
         <v>0.3</v>
@@ -2487,7 +2475,7 @@
   <sheetData>
     <row r="3" spans="2:3" ht="33" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C3" s="2">
         <v>20000</v>
@@ -2495,7 +2483,7 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C4">
         <v>0.3</v>
@@ -2509,10 +2497,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:W37"/>
+  <dimension ref="B2:W35"/>
   <sheetViews>
-    <sheetView topLeftCell="D18" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2577,7 +2565,7 @@
         <v>159</v>
       </c>
       <c r="U8" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
@@ -2640,7 +2628,7 @@
         <v>166</v>
       </c>
       <c r="P11" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
@@ -2657,10 +2645,10 @@
         <v>168</v>
       </c>
       <c r="S12" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
@@ -2668,16 +2656,16 @@
         <v>131</v>
       </c>
       <c r="O13" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="P13" t="s">
+        <v>177</v>
+      </c>
+      <c r="S13" t="s">
         <v>183</v>
       </c>
-      <c r="S13" t="s">
-        <v>189</v>
-      </c>
       <c r="U13" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="V13" s="13">
         <v>0.8</v>
@@ -2700,7 +2688,7 @@
         <v>162</v>
       </c>
       <c r="S14" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="U14" t="s">
         <v>139</v>
@@ -2900,7 +2888,7 @@
         <v>145</v>
       </c>
       <c r="S21" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
@@ -2926,7 +2914,7 @@
         <v>157</v>
       </c>
       <c r="R22" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
@@ -2991,7 +2979,7 @@
         <v>170</v>
       </c>
       <c r="P26" t="s">
-        <v>176</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.25">
@@ -2999,16 +2987,16 @@
         <v>30</v>
       </c>
       <c r="J27" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="K27" t="s">
         <v>59</v>
       </c>
       <c r="O27" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="P27" t="s">
-        <v>175</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.25">
@@ -3016,10 +3004,16 @@
         <v>61</v>
       </c>
       <c r="J28" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="K28" t="s">
         <v>94</v>
+      </c>
+      <c r="O28" t="s">
+        <v>285</v>
+      </c>
+      <c r="P28" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
@@ -3027,13 +3021,13 @@
         <v>169</v>
       </c>
       <c r="J29" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="K29" t="s">
         <v>95</v>
       </c>
       <c r="O29" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P29" t="s">
         <v>171</v>
@@ -3044,10 +3038,10 @@
         <v>96</v>
       </c>
       <c r="O30" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="P30" t="s">
-        <v>172</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.25">
@@ -3055,52 +3049,30 @@
         <v>97</v>
       </c>
       <c r="O31" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="P31" t="s">
-        <v>173</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.25">
       <c r="K32" t="s">
         <v>61</v>
       </c>
-      <c r="O32" t="s">
-        <v>178</v>
-      </c>
-      <c r="P32" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="33" spans="11:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K34" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K35" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="O36" t="s">
-        <v>178</v>
-      </c>
-      <c r="P36" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="37" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="O37" t="s">
-        <v>291</v>
-      </c>
-      <c r="P37" t="s">
-        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -3191,8 +3163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3213,7 +3185,7 @@
         <v>99</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -3227,7 +3199,7 @@
         <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -3236,7 +3208,7 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -3244,7 +3216,7 @@
         <v>103</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -3253,7 +3225,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -3261,7 +3233,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -3270,7 +3242,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -3278,7 +3250,7 @@
         <v>105</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -3287,7 +3259,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -3295,7 +3267,7 @@
         <v>101</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -3304,7 +3276,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -3312,7 +3284,7 @@
         <v>100</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -3321,7 +3293,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -3329,7 +3301,7 @@
         <v>104</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -3338,12 +3310,12 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -3354,7 +3326,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C11" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -3363,12 +3335,12 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C12" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -3377,12 +3349,12 @@
         <v>5</v>
       </c>
       <c r="H12" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C13" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -3391,15 +3363,15 @@
         <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -3408,12 +3380,12 @@
         <v>5</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C15" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -3422,12 +3394,12 @@
         <v>5</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C16" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D16">
         <v>11</v>
@@ -3436,12 +3408,12 @@
         <v>11</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C17" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D17">
         <v>7</v>
@@ -3449,13 +3421,13 @@
       <c r="E17" s="15">
         <v>7</v>
       </c>
-      <c r="O17" t="s">
-        <v>273</v>
+      <c r="O17" s="15" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -3464,12 +3436,12 @@
         <v>1</v>
       </c>
       <c r="O18" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -3478,12 +3450,12 @@
         <v>1</v>
       </c>
       <c r="O19" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C20" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -3493,12 +3465,12 @@
         <v>1</v>
       </c>
       <c r="O20" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C21" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -3508,12 +3480,12 @@
         <v>0.5</v>
       </c>
       <c r="O21" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C22" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D22">
         <v>5</v>
@@ -3522,12 +3494,12 @@
         <v>1.5</v>
       </c>
       <c r="O22" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C23" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D23">
         <v>11</v>
@@ -3541,7 +3513,7 @@
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C24" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D24">
         <v>11</v>
@@ -3555,7 +3527,7 @@
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C25" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D25">
         <v>10</v>
@@ -3564,12 +3536,12 @@
         <v>5</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C26" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D26">
         <v>10</v>
@@ -3578,27 +3550,27 @@
         <v>2</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.25">
       <c r="I27" s="18" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.25">
       <c r="I28" s="18" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.25">
       <c r="I29" s="17" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.25">
       <c r="I30" s="17" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/30SecHero/Designer/真英雄30秒.xlsx
+++ b/30SecHero/Designer/真英雄30秒.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTG_PROJECT\30SecHero\30SecHero\Designer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D974F767-9FB6-410E-BE8D-800B4FA39C8F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB343C8-6944-417A-A591-4EBA81674BD8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="28800" windowHeight="12135" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="293">
   <si>
     <t>冰</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1160,7 +1160,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>護盾破碎時有機率放出暈眩衝擊波</t>
+    <t>護盾破碎時放出冰凍衝擊波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加秒數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魂介面CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具介面CD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2499,8 +2511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3049,7 +3061,7 @@
         <v>97</v>
       </c>
       <c r="O31" t="s">
-        <v>173</v>
+        <v>290</v>
       </c>
       <c r="P31" t="s">
         <v>289</v>
@@ -3164,7 +3176,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3510,6 +3522,9 @@
       <c r="F23">
         <v>1</v>
       </c>
+      <c r="O23" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C24" s="7" t="s">
@@ -3523,6 +3538,9 @@
       </c>
       <c r="F24">
         <v>1</v>
+      </c>
+      <c r="O24" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.25">

--- a/30SecHero/Designer/真英雄30秒.xlsx
+++ b/30SecHero/Designer/真英雄30秒.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTG_PROJECT\30SecHero\30SecHero\Designer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB343C8-6944-417A-A591-4EBA81674BD8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7CF8D4-11F5-4C5A-A87C-54EA553835FA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="28800" windowHeight="12135" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="28800" windowHeight="12135" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="王" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="299">
   <si>
     <t>冰</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1173,6 +1173,30 @@
   </si>
   <si>
     <t>道具介面CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物魂道具狀態特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷阱圖像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衝刺特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰凍波特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擊退波特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒數數字優化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2511,8 +2535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38:O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3175,8 +3199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3447,7 +3471,7 @@
       <c r="E18" s="15">
         <v>1</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O18" s="15" t="s">
         <v>269</v>
       </c>
     </row>
@@ -3461,8 +3485,8 @@
       <c r="E19" s="15">
         <v>1</v>
       </c>
-      <c r="O19" t="s">
-        <v>271</v>
+      <c r="O19" s="15" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.25">
@@ -3477,7 +3501,7 @@
         <v>1</v>
       </c>
       <c r="O20" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.25">
@@ -3492,7 +3516,7 @@
         <v>0.5</v>
       </c>
       <c r="O21" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.25">
@@ -3506,7 +3530,7 @@
         <v>1.5</v>
       </c>
       <c r="O22" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.25">
@@ -3523,7 +3547,7 @@
         <v>1</v>
       </c>
       <c r="O23" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.25">
@@ -3540,7 +3564,7 @@
         <v>1</v>
       </c>
       <c r="O24" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.25">
@@ -3556,6 +3580,9 @@
       <c r="I25" s="15" t="s">
         <v>278</v>
       </c>
+      <c r="O25" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C26" s="7" t="s">
@@ -3570,25 +3597,40 @@
       <c r="I26" s="15" t="s">
         <v>277</v>
       </c>
+      <c r="O26" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.25">
       <c r="I27" s="18" t="s">
         <v>279</v>
       </c>
+      <c r="O27" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.25">
       <c r="I28" s="18" t="s">
         <v>280</v>
       </c>
+      <c r="O28" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.25">
       <c r="I29" s="17" t="s">
         <v>281</v>
       </c>
+      <c r="O29" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.25">
       <c r="I30" s="17" t="s">
         <v>282</v>
+      </c>
+      <c r="O30" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/30SecHero/Designer/真英雄30秒.xlsx
+++ b/30SecHero/Designer/真英雄30秒.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTG_PROJECT\30SecHero\30SecHero\Designer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7CF8D4-11F5-4C5A-A87C-54EA553835FA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DA601C-6E05-4258-A0FA-C5A32BEF8DA9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="28800" windowHeight="12135" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <sheet name="陷阱" sheetId="5" r:id="rId7"/>
     <sheet name="帶作項目" sheetId="6" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="317">
   <si>
     <t>冰</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1197,6 +1197,75 @@
   </si>
   <si>
     <t>倒數數字優化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家的子彈速度很快 可以連成一線 敵方較慢方便閃躲</t>
+  </si>
+  <si>
+    <t>玩家的子彈通常為長條狀 敵方為圓形</t>
+  </si>
+  <si>
+    <t>玩家的子彈只會從玩家前方出現 且不管有沒有敵人都會自動發射</t>
+  </si>
+  <si>
+    <t>製作陷阱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>製作關卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存怪物白圖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腳色改紙娃娃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS福文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子彈特效優化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷阱加上反白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列聲音清單</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>製作音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店ICON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寶石(金錢)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寶石(現金)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寶石(廣告)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金錢(寶石)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腳色怪物加動態</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2535,8 +2604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:W35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38:O42"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3197,10 +3266,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="T35" sqref="T35"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29:R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3429,6 +3498,9 @@
       <c r="E15" s="15">
         <v>5</v>
       </c>
+      <c r="H15" t="s">
+        <v>299</v>
+      </c>
       <c r="O15" s="15" t="s">
         <v>275</v>
       </c>
@@ -3443,11 +3515,14 @@
       <c r="E16" s="15">
         <v>11</v>
       </c>
+      <c r="H16" t="s">
+        <v>300</v>
+      </c>
       <c r="O16" s="15" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C17" s="7" t="s">
         <v>245</v>
       </c>
@@ -3457,11 +3532,14 @@
       <c r="E17" s="15">
         <v>7</v>
       </c>
+      <c r="H17" t="s">
+        <v>301</v>
+      </c>
       <c r="O17" s="15" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>212</v>
       </c>
@@ -3475,7 +3553,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>246</v>
       </c>
@@ -3489,7 +3567,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C20" s="7" t="s">
         <v>221</v>
       </c>
@@ -3500,11 +3578,11 @@
       <c r="F20">
         <v>1</v>
       </c>
-      <c r="O20" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O20" s="15" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C21" s="7" t="s">
         <v>222</v>
       </c>
@@ -3515,11 +3593,11 @@
       <c r="F21">
         <v>0.5</v>
       </c>
-      <c r="O21" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O21" s="15" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C22" s="7" t="s">
         <v>217</v>
       </c>
@@ -3529,11 +3607,11 @@
       <c r="F22">
         <v>1.5</v>
       </c>
-      <c r="O22" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O22" s="15" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C23" s="7" t="s">
         <v>201</v>
       </c>
@@ -3546,11 +3624,11 @@
       <c r="F23">
         <v>1</v>
       </c>
-      <c r="O23" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O23" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C24" s="7" t="s">
         <v>204</v>
       </c>
@@ -3563,11 +3641,11 @@
       <c r="F24">
         <v>1</v>
       </c>
-      <c r="O24" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O24" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C25" s="7" t="s">
         <v>202</v>
       </c>
@@ -3580,11 +3658,11 @@
       <c r="I25" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="O25" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O25" s="15" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C26" s="7" t="s">
         <v>203</v>
       </c>
@@ -3597,40 +3675,103 @@
       <c r="I26" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="O26" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O26" s="15" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.25">
       <c r="I27" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="O27" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O27" s="15" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.25">
       <c r="I28" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="O28" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O28" s="15" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.25">
       <c r="I29" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="O29" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O29" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="R29" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.25">
       <c r="I30" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="O30" t="s">
-        <v>297</v>
+      <c r="O30" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="R30" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="O31" t="s">
+        <v>313</v>
+      </c>
+      <c r="R31" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="O32" t="s">
+        <v>314</v>
+      </c>
+      <c r="R32" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="33" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O33" t="s">
+        <v>312</v>
+      </c>
+      <c r="R33" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="34" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O34" t="s">
+        <v>315</v>
+      </c>
+      <c r="R34" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="35" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="R35" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="36" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="R36" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="37" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="R37" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="38" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="R38" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="39" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="R39" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/30SecHero/Designer/真英雄30秒.xlsx
+++ b/30SecHero/Designer/真英雄30秒.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTG_PROJECT\30SecHero\30SecHero\Designer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DA601C-6E05-4258-A0FA-C5A32BEF8DA9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFE76A1-947F-4FEE-BDAC-9BCD37981540}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="28800" windowHeight="12135" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="28800" windowHeight="12135" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="王" sheetId="9" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="工作表1" sheetId="7" r:id="rId6"/>
     <sheet name="陷阱" sheetId="5" r:id="rId7"/>
     <sheet name="帶作項目" sheetId="6" r:id="rId8"/>
+    <sheet name="工作表3" sheetId="11" r:id="rId9"/>
+    <sheet name="使用音樂" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="400">
   <si>
     <t>冰</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1267,13 +1269,404 @@
   <si>
     <t>腳色怪物加動態</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>案件說明圖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRPG_Take_Courage_noPer_Loop</t>
+  </si>
+  <si>
+    <t>BRPG_Vanquisher_FULL_Loop</t>
+  </si>
+  <si>
+    <t>boss血量unity設定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>進版圖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劇情圖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同伴及提示ICON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腳色衝刺特效要跟著轉向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增關卡層數顯示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裝備掉落品質及表演</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具被門吸走表演優化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>護盾破碎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀揮舞+擊中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敵攻打中護盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敵攻打中玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衝刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衝刺反彈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃到靈魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃到道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>門破碎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰爆炸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒球爆炸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰凍爆炸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨球爆炸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物&amp;玩家死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裝備吸到門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音樂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戰鬥音樂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>選單音樂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿裝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脫裝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip (Chain Mail)</t>
+  </si>
+  <si>
+    <t>Unequip (Clothes)</t>
+  </si>
+  <si>
+    <t>點升級</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>點內選項按鈕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>點主列按鈕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切換裝備</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>etfx_explosion_frost</t>
+  </si>
+  <si>
+    <t>etfx_explosion_magic</t>
+  </si>
+  <si>
+    <t>stab</t>
+  </si>
+  <si>
+    <t>玩家著火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家中毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家冰凍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>points_ticker_bonus_score_reward_single_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rock_smashable_hit_impact_large_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_menu_button_keystroke_01</t>
+  </si>
+  <si>
+    <t>倒數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒數(快結束)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>變回史萊姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss出現</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clockticksound-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warning_boss</t>
+  </si>
+  <si>
+    <t>要拿書喔喔喔喔喔</t>
+  </si>
+  <si>
+    <t>說明第一頁</t>
+  </si>
+  <si>
+    <t>第二頁</t>
+  </si>
+  <si>
+    <t>第三頁</t>
+  </si>
+  <si>
+    <t>操作說明</t>
+  </si>
+  <si>
+    <t>藥水說明</t>
+  </si>
+  <si>
+    <t>吃到食顯示藥水圖示及吃到的特效樣子並顯示說明</t>
+  </si>
+  <si>
+    <t>加上玩家移動軌跡特效，隨速度改變</t>
+  </si>
+  <si>
+    <t>加速度顯示及衝刺顯示</t>
+  </si>
+  <si>
+    <r>
+      <t>時間到將會變回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一碰就死</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的弱小史萊姆</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30秒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的時間衝破城門進入下一關</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓住它們可以賜與你怪物的特殊能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>殺死敵人可</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>延長英雄時間</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，並</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>提升移動速度</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有時怪物被殺死後會跑出靈魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨力藥水可以讓你已經強大到不能再強大的攻擊更加的強大!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快腳藥水可以讓你跑得比飛的還快，還能得到許多的超速罰單!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石身藥水可以讓你像超人一樣無堅不摧，甚至連氨星石也不怕!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果那大大的紅色十字還不能讓你了解它的用途，也許你正在修復的大腦可以!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄精華可以延長英雄時間，讓你自大的尊嚴再撐一會兒!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>etfx_explosion_fireball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explosion_small_short_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRPG_Take_Courage_Lite_Loop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄時間結束後會變回史萊姆q_q</t>
+  </si>
+  <si>
+    <t>小心!被碰一下就會死掉囉!</t>
+  </si>
+  <si>
+    <t>你有30秒的時間衝破大門進入下一關，殺死敵人可延長時間、提升移動速度，保握時間狂衝吧!</t>
+  </si>
+  <si>
+    <t>燙燙燙啊!著火時會不斷地減少血量!</t>
+  </si>
+  <si>
+    <t>好...好冷....冰凍時速度會下降!</t>
+  </si>
+  <si>
+    <t>嘔嘔嘔....中毒時攻擊力會下降!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1297,8 +1690,16 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1344,6 +1745,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1397,7 +1804,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1453,6 +1860,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2065,6 +2475,307 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BF683B-58C7-401E-9ED0-D8F83E18E429}">
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>332</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>335</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>336</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>337</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>352</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>353</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>354</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="15"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>355</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="15"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>338</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>339</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>340</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>341</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>342</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>343</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>344</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>348</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>349</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>365</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>369</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>346</v>
+      </c>
+      <c r="C34" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>347</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:A11"/>
@@ -2134,7 +2845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -2604,7 +3315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:W35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
@@ -3266,10 +3977,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:R39"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29:R39"/>
+    <sheetView topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3522,7 +4233,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C17" s="7" t="s">
         <v>245</v>
       </c>
@@ -3539,7 +4250,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>212</v>
       </c>
@@ -3553,7 +4264,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>246</v>
       </c>
@@ -3567,7 +4278,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C20" s="7" t="s">
         <v>221</v>
       </c>
@@ -3582,7 +4293,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C21" s="7" t="s">
         <v>222</v>
       </c>
@@ -3597,7 +4308,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C22" s="7" t="s">
         <v>217</v>
       </c>
@@ -3611,7 +4322,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C23" s="7" t="s">
         <v>201</v>
       </c>
@@ -3628,7 +4339,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C24" s="7" t="s">
         <v>204</v>
       </c>
@@ -3645,7 +4356,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C25" s="7" t="s">
         <v>202</v>
       </c>
@@ -3662,7 +4373,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C26" s="7" t="s">
         <v>203</v>
       </c>
@@ -3679,7 +4390,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
       <c r="I27" s="18" t="s">
         <v>279</v>
       </c>
@@ -3687,7 +4398,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
       <c r="I28" s="18" t="s">
         <v>280</v>
       </c>
@@ -3695,83 +4406,264 @@
         <v>308</v>
       </c>
     </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
       <c r="I29" s="17" t="s">
         <v>281</v>
       </c>
       <c r="O29" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="R29" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
       <c r="I30" s="17" t="s">
         <v>282</v>
       </c>
       <c r="O30" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="R30" t="s">
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O31" s="15" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O32" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="O33" s="15" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="O31" t="s">
+    <row r="34" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="N34" t="s">
         <v>313</v>
       </c>
-      <c r="R31" t="s">
+      <c r="O34" s="15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="35" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="N35" t="s">
+        <v>314</v>
+      </c>
+      <c r="O35" s="15" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="36" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G36" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="N36" t="s">
+        <v>312</v>
+      </c>
+      <c r="O36" s="15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="37" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>325</v>
+      </c>
+      <c r="N37" t="s">
+        <v>315</v>
+      </c>
+      <c r="O37" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q37" s="19" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="38" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>326</v>
+      </c>
+      <c r="O38" s="15" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="39" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>327</v>
+      </c>
+      <c r="O39" s="15" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="O32" t="s">
-        <v>314</v>
-      </c>
-      <c r="R32" t="s">
+    <row r="40" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="O40" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="33" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="O33" t="s">
-        <v>312</v>
-      </c>
-      <c r="R33" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="34" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="O34" t="s">
-        <v>315</v>
-      </c>
-      <c r="R34" t="s">
+    <row r="41" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="O41" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="35" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="R35" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="36" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="R36" t="s">
+    <row r="42" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="O42" s="15" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="37" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="R37" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="38" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="R38" t="s">
+    <row r="43" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="O43" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="39" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="R39" t="s">
+    <row r="44" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="O44" t="s">
         <v>292</v>
+      </c>
+    </row>
+    <row r="45" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="O45" t="s">
+        <v>322</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4B11A3-2AB0-4211-98DC-AA00F39DCDD0}">
+  <dimension ref="A1:A39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>399</v>
       </c>
     </row>
   </sheetData>
